--- a/Code java tổng hợp.xlsx
+++ b/Code java tổng hợp.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C0520G1-LeToan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AF5FE9-402F-4742-AA27-7156FA596B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD6F47-3800-4E0D-909B-52986196967F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C1A0EEAD-7287-42CC-8CFF-B076878E7441}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C1A0EEAD-7287-42CC-8CFF-B076878E7441}"/>
   </bookViews>
   <sheets>
     <sheet name="Thẻ h,p,a,img" sheetId="1" r:id="rId1"/>
     <sheet name="Thẻ ul,ol,li" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Kí tự HTML Entity" sheetId="3" r:id="rId3"/>
+    <sheet name="Thẻ form" sheetId="4" r:id="rId4"/>
+    <sheet name="Thẻ Input, button, textarea" sheetId="5" r:id="rId5"/>
+    <sheet name="Thẻ Select, Option" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="284">
   <si>
     <t>Thẻ  &lt;h1&gt; định nghĩ tiêu đề quan trọng nhất (nổi bật nhất, lớn nhất), các thẻ khác sẽ lần lượt được sử dụng các tiêu đề ít quan trọng hơn. Thẻ &lt;h6&gt; định nghĩa tiêu đề nhỏ nhất.</t>
   </si>
@@ -3923,12 +3926,4467 @@
   <si>
     <t>&amp;#174;</t>
   </si>
+  <si>
+    <t>TẠO BIỂU MẪU CHO TRANG WEB</t>
+  </si>
+  <si>
+    <t>Thẻ &lt;form&gt; được sử dụng để tạo các biểu mẫu, cho phép người dùng nhập dữ liệu và gửi về server.</t>
+  </si>
+  <si>
+    <t>Cú pháp sử dụng thẻ form khá đơn giản, bao gồm một thẻ mở và một thẻ đóng. Bên trong thẻ form chứa các điều khiển (control) của biểu mẫu (chẳng hạn như text, button, radio button, checkbox...).</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  First name:&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"firstname"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mickey"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  Last name:&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"lastname"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mouse"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"submit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Submit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t>Chẳng hạn, biểu mẫu dưới đây gửi dữ liệu lên một địa chỉ trên Server của Google:</t>
+  </si>
+  <si>
+    <r>
+      <t>Thuộc tính </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF526069"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF526069"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> quy định nơi dữ liệu được gửi đến. Địa chỉ này có thể là trên cùng server với trang web hiện tại hoặc trên bất kỳ server nào khác.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://www.google.com.vn/"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"q"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"submit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tìm kiếm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Phương thức được sử dụng mặc định (tức là khi chúng ta không quy định thuộc tính method) là GET.</t>
+  </si>
+  <si>
+    <t>&lt;form action = "/action_page.php" method="get"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;form action = "/action_page.php" method="post"&gt;</t>
+  </si>
+  <si>
+    <t>Dữ liệu được gửi đi sẽ hiển thị trên thanh địa chỉ của trình duyệt</t>
+  </si>
+  <si>
+    <t>Dữ liệu được gửi đi không hiển thị trên thanh địa chỉ của trình duyệt</t>
+  </si>
+  <si>
+    <t>Không nên sử dụng để gửi các dữ liệu nhạy cảm (chẳng hạn như mật khẩu)</t>
+  </si>
+  <si>
+    <t>Được sử dụng để gửi các dữ liệu nhạy cảm</t>
+  </si>
+  <si>
+    <t>Thường được sử dụng để gửi những dữ liệu nhỏ</t>
+  </si>
+  <si>
+    <t>Không hạn chế dung lượng dữ liệu gửi đi. Thường được sử dụng để gửi dữ liệu lớn lên server.</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <r>
+      <t>Thuộc tính </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF526069"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF526069"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> quy định cách thức dữ liệu được gửi lên server. Có 2 cách thức thường được sử dụng đó là POST và GET.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chúng ta có thể sử dụng thẻ &lt;fieldset&gt; và thẻ &lt;legend&gt; để nhóm các dữ liệu của biểu mẫu lại với nhau.</t>
+  </si>
+  <si>
+    <t>Cú pháp sử dụng tương tự như sau:</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/action_page.php"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>fieldset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>legend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;Personal information:&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>legend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    First name:&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"firstname"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mickey"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Last name:&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"lastname"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mouse"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"submit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Submit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>fieldset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Thẻ input được sử dụng để tạo các trường giúp người dùng nhập thông tin vào.</t>
+  </si>
+  <si>
+    <t>SỬ DỤNG INPUT, BUTTON, TEXTAREA</t>
+  </si>
+  <si>
+    <t>Có nhiều loại input khác nhau, trong đó phổ biến là: text, passwod, checkbox, radio, reset, submit, hidden</t>
+  </si>
+  <si>
+    <t>Input Text</t>
+  </si>
+  <si>
+    <t>Dùng để nhập dữ liệu chuỗi ngắn (trên 1 dòng).</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/action_page.php"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Account:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"account"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Input Password</t>
+  </si>
+  <si>
+    <t>Dùng để nhập vào mật khẩu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Password:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Input Checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dùng để lựa chọn nhiều hạng mục từ một danh sách.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  Sở thích:&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"hobby"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"travel"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"checkbox"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt; Du lịch&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"hobby"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"sport"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"checkbox"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt; Thể thao&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"hobby"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cooking"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"checkbox"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt; Nấu ăn&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Input Radio</t>
+  </si>
+  <si>
+    <r>
+      <t>Dùng để lựa chọn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF526069"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>một</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF526069"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> hạng mục từ một danh sách</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"hobby"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"travel"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"radio"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>checked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt; Du lịch&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"hobby"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"sport"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"radio"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt; Thể thao&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"hobby"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cooking"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"radio"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt; Nấu ăn&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lưu ý:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF526069"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> thuộc tính checked cho phép quy định giá trị mặc định được chọn.</t>
+    </r>
+  </si>
+  <si>
+    <t>Input Reset</t>
+  </si>
+  <si>
+    <t>Dùng để xoá các giá trị trong một form, đưa các trường về giá trị mặc định của chúng.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  Account: &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"account"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"admin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"reset"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Reset"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Input Submit</t>
+  </si>
+  <si>
+    <t>Dùng để hiển thị một nút, có chức năng đẩy dữ liệu từ form lên server khi bấm vào.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"POST"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"submit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Send data"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Input Hidden</t>
+  </si>
+  <si>
+    <t>Dùng để chứa giá trị của form nhưng không hiển thị trên giao diện người dùng. Dữ liệu này cũng được đẩy lên server như bình thường. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"secret"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"abcg124faasfjh149dfd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"hidden"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Thẻ button</t>
+  </si>
+  <si>
+    <t>Thẻ button được sử dụng để hiển thị một nút.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bên trong thẻ button thì chúng ta có thể đưa các nội dung khác vào, chẳng hạn như là chuỗi hoặc hình ảnh. </t>
+  </si>
+  <si>
+    <t>Đây cũng chính là sự khác biệt so với việc sử dụng thẻ input button, bởi vì bên trong input button thì chỉ có thể chứa text.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"button"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>img</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"http://codegym.vn/wp-content/uploads/2017/03/CodeGym-3-02-copy.jpg"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"200px"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Thẻ textarea</t>
+  </si>
+  <si>
+    <t>Thẻ textarea được sử dụng để hiển thị trường nhập chuỗi dài (nhiều dòng).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>textarea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>cols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"50"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8B068"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>rows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF5EEA2"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;This is a very very long text text text text text text text text text text text text &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF4F68"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>textarea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF0F0F0"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>SỬ DỤNG SELECT, OPTION</t>
+  </si>
+  <si>
+    <t>Thẻ &lt;select&gt; được sử dụng chung với thẻ &lt;option&gt; để tạo một danh sách drop-down hoặc list, cho phép chọn một hoặc nhiều hạng mục từ một danh sách có sẵn.</t>
+  </si>
+  <si>
+    <t>Chúng ta cùng phân biệt giữa một số điều khiển:</t>
+  </si>
+  <si>
+    <r>
+      <t>checkbox:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF526069"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> lựa chọn nhiều hạng mục từ một danh sách</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>radio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF526069"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> lựa chọn một hạng mục từ một danh sách. Hiển thị toàn bộ danh sách cho người dùng thấy ngay từ đầu. Sử dụng tốt trong trường hợp có ít lựa chọn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>drop-down: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF526069"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lựa chọn một hạng mục từ một danh sách. Chỉ hiển thị hạng mục hiện tại được chọn, còn lại các hạng mục khác đều bị ẩn. Toàn bộ danh sách chỉ hiển thị khi người dùng click chuột vào.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF526069"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: lựa chọn nhiều hạng mục từ một danh sách.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"city"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"HN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;Hà Nội&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"HP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;Hải Phòng&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"HU"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;Huế&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;Đà Nẵng&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"SG"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;Sài Gòn&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Lựa chọn một thành phố từ drop-down:</t>
+  </si>
+  <si>
+    <t>Lựa chọn nhiều thành phố từ list:</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFA3D58"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"city"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE77600"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>multiple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4017,8 +8475,38 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF526069"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF0F0F0"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF4F68"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF8B068"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF5EEA2"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4034,6 +8522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4065,7 +8559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4100,6 +8594,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4416,7 +8915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34199A8B-1CC5-49F9-92C9-5AD6CDDF83A8}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
@@ -4929,7 +9428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE61B389-5536-4039-997A-EBD3AF90520F}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -5225,7 +9724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA2C0D3-A75F-4E15-A6F9-1C1FB21BC7CF}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5425,4 +9924,1131 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B61A30C-E758-46A0-93FC-2D97562268BE}">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FA6560-6A4D-47E5-B1E2-2C93812A1B66}">
+  <dimension ref="A1:L88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21">
+      <c r="A3" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18">
+      <c r="A7" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="18">
+      <c r="A13" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18">
+      <c r="A14" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="18">
+      <c r="A20" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18">
+      <c r="A21" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="18">
+      <c r="A29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" ht="18">
+      <c r="A30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" ht="18">
+      <c r="A37" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18">
+      <c r="A39" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18">
+      <c r="A40" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="50" spans="1:9" ht="18">
+      <c r="A50" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18">
+      <c r="A51" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="61" spans="1:9" s="2" customFormat="1" ht="18">
+      <c r="A61" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="2" customFormat="1" ht="18">
+      <c r="A62" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="74" spans="1:9" ht="18">
+      <c r="A74" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18">
+      <c r="A75" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18">
+      <c r="A76" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18">
+      <c r="A77" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="84" spans="1:12" ht="18">
+      <c r="A84" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="18">
+      <c r="A85" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2815C5F3-9343-4671-9AC7-46B36960D68B}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18">
+      <c r="A1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18">
+      <c r="A18" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Code java tổng hợp.xlsx
+++ b/Code java tổng hợp.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C0520G1-LeToan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD6F47-3800-4E0D-909B-52986196967F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0CA65E-FDEC-4336-A0E0-94823387A637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C1A0EEAD-7287-42CC-8CFF-B076878E7441}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C1A0EEAD-7287-42CC-8CFF-B076878E7441}"/>
   </bookViews>
   <sheets>
     <sheet name="Thẻ h,p,a,img" sheetId="1" r:id="rId1"/>
     <sheet name="Thẻ ul,ol,li" sheetId="2" r:id="rId2"/>
     <sheet name="Kí tự HTML Entity" sheetId="3" r:id="rId3"/>
     <sheet name="Thẻ form" sheetId="4" r:id="rId4"/>
-    <sheet name="Thẻ Input, button, textarea" sheetId="5" r:id="rId5"/>
-    <sheet name="Thẻ Select, Option" sheetId="6" r:id="rId6"/>
+    <sheet name="Vẽ Canvas" sheetId="7" r:id="rId5"/>
+    <sheet name="Thẻ Input, button, textarea" sheetId="5" r:id="rId6"/>
+    <sheet name="Thẻ Select, Option" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="310">
   <si>
     <t>Thẻ  &lt;h1&gt; định nghĩ tiêu đề quan trọng nhất (nổi bật nhất, lớn nhất), các thẻ khác sẽ lần lượt được sử dụng các tiêu đề ít quan trọng hơn. Thẻ &lt;h6&gt; định nghĩa tiêu đề nhỏ nhất.</t>
   </si>
@@ -8381,12 +8382,484 @@
       <t>&gt;</t>
     </r>
   </si>
+  <si>
+    <t>Mã HTML để định nghĩa một canvas là như sau:</t>
+  </si>
+  <si>
+    <t>&lt;canvas id="myCanvas" width="200" height="100"&gt;&lt;/canvas&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE38800"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>.getElementById(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"myCanvas"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ctx = c.getContext(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2d"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ctx.moveTo(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ctx.lineTo(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>ctx.stroke();</t>
+  </si>
+  <si>
+    <t>Vẽ Đường Thẳng</t>
+  </si>
+  <si>
+    <t>Vẽ Đường Tròn</t>
+  </si>
+  <si>
+    <t>ctx.beginPath();</t>
+  </si>
+  <si>
+    <r>
+      <t>ctx.arc(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE38800"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>.PI);</t>
+    </r>
+  </si>
+  <si>
+    <t>Tọa độ bắt đầu</t>
+  </si>
+  <si>
+    <t>Tọa độ kết thúc</t>
+  </si>
+  <si>
+    <t>95, 60 tọa độ tâm đường tròn, 40 bán kính đường tròn, 0 là vị trí bắt đầu vẽ (0*Math.PI), 2*Math.PI là vị trí kết thúc.</t>
+  </si>
+  <si>
+    <t>Vẽ Chữ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ctx.font = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"30px Arial"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Quy định font size và font chữ</t>
+  </si>
+  <si>
+    <r>
+      <t>ctx.fillText(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Hello World"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>50, 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>Hello World' là nội dung cần viết, 10, 50 là tọa độ bắt đầu viết chữ, 100 là độ dài của chữ muốn viết</t>
+  </si>
+  <si>
+    <t>strokeText là chữ viết không dc đổ đầy màu mà chỉ có màu viền</t>
+  </si>
+  <si>
+    <r>
+      <t>ctx.strokeText(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2AAB51"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Hello World"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFED6E55"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>50, 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF39464E"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>'Hello World' là nội dung cần viết, 10, 50 là tọa độ bắt đầu viết chữ, 100 là độ dài của chữ muốn viết</t>
+  </si>
+  <si>
+    <t>Vẽ Hình Chữ Nhật</t>
+  </si>
+  <si>
+    <t>var c = document.getElementById("myCanvas");</t>
+  </si>
+  <si>
+    <t>var ctx = c.getContext("2d");</t>
+  </si>
+  <si>
+    <t>ctx.fillRect(20, 20, 150, 100);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8505,6 +8978,52 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF526069"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF8D44EB"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFE38800"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFED6E55"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF526069"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -8559,7 +9078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8599,6 +9118,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9930,7 +10463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B61A30C-E758-46A0-93FC-2D97562268BE}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -10151,6 +10684,201 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6B779-BF11-4DF3-B8E1-D150382022AA}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6">
+      <c r="A1" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6">
+      <c r="A2" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="17.399999999999999">
+      <c r="A4" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.399999999999999">
+      <c r="A11" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999">
+      <c r="A18" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.399999999999999">
+      <c r="A29" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18">
+      <c r="A30" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" ht="18">
+      <c r="A31" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+    </row>
+    <row r="32" spans="1:5" ht="18">
+      <c r="A32" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FA6560-6A4D-47E5-B1E2-2C93812A1B66}">
   <dimension ref="A1:L88"/>
   <sheetViews>
@@ -10916,7 +11644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2815C5F3-9343-4671-9AC7-46B36960D68B}">
   <dimension ref="A1:B25"/>
   <sheetViews>
